--- a/biology/Botanique/Andryale_à_feuilles_entières/Andryale_à_feuilles_entières.xlsx
+++ b/biology/Botanique/Andryale_à_feuilles_entières/Andryale_à_feuilles_entières.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andryale_%C3%A0_feuilles_enti%C3%A8res</t>
+          <t>Andryale_à_feuilles_entières</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andryala integrifolia, l'Andryale à feuilles entières ou Andryale sinueuse, est une espèce de plante à fleurs de la famille des Astéracées originaire de la région méditerranéenne, et désormais largement répandue en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andryale_%C3%A0_feuilles_enti%C3%A8res</t>
+          <t>Andryale_à_feuilles_entières</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>C'est une plante herbacée.
-Caractéristiques
-Voir Lamarck et al. Flore Française (1815)[1],[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Andryale_à_feuilles_entières</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andryale_%C3%A0_feuilles_enti%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Voir Lamarck et al. Flore Française (1815),
 organes reproducteurs :
 Type d'inflorescence :  capitule
 répartition des sexes : hermaphrodite
@@ -530,31 +579,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Andryale_%C3%A0_feuilles_enti%C3%A8res</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Andryale_à_feuilles_entières</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Andryale_%C3%A0_feuilles_enti%C3%A8res</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Andryala aestivalis Pomel
 Andryala allochroa Hoffmanns. &amp; Link
